--- a/usrdata/klassiccole/cole_watched_tvseries.xlsx
+++ b/usrdata/klassiccole/cole_watched_tvseries.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="112">
   <si>
     <t>primaryTitle</t>
   </si>
@@ -142,6 +142,216 @@
   </si>
   <si>
     <t>tt2244495</t>
+  </si>
+  <si>
+    <t>Family Guy</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Animation,Comedy</t>
+  </si>
+  <si>
+    <t>tt0182576</t>
+  </si>
+  <si>
+    <t>Prison Break</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Action,Crime,Drama</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>tt0455275</t>
+  </si>
+  <si>
+    <t>Breaking Bad</t>
+  </si>
+  <si>
+    <t>Crime,Drama,Thriller</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>tt0903747</t>
+  </si>
+  <si>
+    <t>Game of Thrones</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>tt0944947</t>
+  </si>
+  <si>
+    <t>Fallout</t>
+  </si>
+  <si>
+    <t>tt12637874</t>
+  </si>
+  <si>
+    <t>The Walking Dead</t>
+  </si>
+  <si>
+    <t>Drama,Horror,Thriller</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>tt1520211</t>
+  </si>
+  <si>
+    <t>American Horror Story</t>
+  </si>
+  <si>
+    <t>Drama,Horror,Sci-Fi</t>
+  </si>
+  <si>
+    <t>tt1844624</t>
+  </si>
+  <si>
+    <t>Black Mirror</t>
+  </si>
+  <si>
+    <t>Crime,Drama,Mystery</t>
+  </si>
+  <si>
+    <t>tt2085059</t>
+  </si>
+  <si>
+    <t>Orange Is the New Black</t>
+  </si>
+  <si>
+    <t>Comedy,Crime,Drama</t>
+  </si>
+  <si>
+    <t>tt2372162</t>
+  </si>
+  <si>
+    <t>The Blacklist</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>tt2741602</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Adventure,Animation,Comedy</t>
+  </si>
+  <si>
+    <t>tt2861424</t>
+  </si>
+  <si>
+    <t>Better Call Saul</t>
+  </si>
+  <si>
+    <t>Crime,Drama</t>
+  </si>
+  <si>
+    <t>tt3032476</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>tt3107288</t>
+  </si>
+  <si>
+    <t>Daredevil</t>
+  </si>
+  <si>
+    <t>tt3322312</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Comedy,Romance</t>
+  </si>
+  <si>
+    <t>tt0108778</t>
+  </si>
+  <si>
+    <t>Freaks and Geeks</t>
+  </si>
+  <si>
+    <t>Comedy,Drama</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>tt0193676</t>
+  </si>
+  <si>
+    <t>SpongeBob SquarePants</t>
+  </si>
+  <si>
+    <t>Animation,Comedy,Family</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>tt0206512</t>
+  </si>
+  <si>
+    <t>American Dad!</t>
+  </si>
+  <si>
+    <t>tt0397306</t>
+  </si>
+  <si>
+    <t>White Collar</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>tt1358522</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Action,Animation,Comedy</t>
+  </si>
+  <si>
+    <t>tt1486217</t>
+  </si>
+  <si>
+    <t>New Girl</t>
+  </si>
+  <si>
+    <t>tt1826940</t>
   </si>
 </sst>
 </file>
@@ -503,15 +713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" customWidth="1"/>
+    <col min="1" max="1" width="48.59765625" customWidth="1"/>
     <col min="2" max="2" width="24.73046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -741,6 +951,804 @@
       </c>
       <c r="L6" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>8.1</v>
+      </c>
+      <c r="F7">
+        <v>371376</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>1999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F8">
+        <v>605908</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>2005</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>9.5</v>
+      </c>
+      <c r="F9">
+        <v>2242894</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>2008</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F10">
+        <v>2371609</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>2011</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>8.4</v>
+      </c>
+      <c r="F11">
+        <v>273999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>2024</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>8.1</v>
+      </c>
+      <c r="F12">
+        <v>1115501</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>2010</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>351019</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>2011</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F14">
+        <v>662824</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>2011</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>325219</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>2013</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>7.9</v>
+      </c>
+      <c r="F16">
+        <v>285125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>2013</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>9.1</v>
+      </c>
+      <c r="F17">
+        <v>628969</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>2013</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>693704</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>2015</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+      <c r="F19">
+        <v>372870</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>2014</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>8.6</v>
+      </c>
+      <c r="F20">
+        <v>486818</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>2015</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21">
+        <v>8.9</v>
+      </c>
+      <c r="F21">
+        <v>1119566</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>1994</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F22">
+        <v>156911</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>1999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>115810</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>1999</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>7.4</v>
+      </c>
+      <c r="F24">
+        <v>138737</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>2005</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F25">
+        <v>146162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>2009</v>
+      </c>
+      <c r="J25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26">
+        <v>8.6</v>
+      </c>
+      <c r="F26">
+        <v>169344</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>2009</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>7.8</v>
+      </c>
+      <c r="F27">
+        <v>251380</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>2011</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
